--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F987885E-ED1E-414B-94DF-B0E8DD889474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47D5904C-AD16-46C8-91C4-823317CAA4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F94586EA-B355-4D39-86C8-E75443438ACF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{59CC8620-3822-4E85-BB03-914695FADB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4194,8 +4194,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -4211,12 +4217,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -4291,13 +4291,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4313,6 +4313,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C427A62C-E600-2794-C21A-4C917FBA0E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4631,7 +4686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0484DA91-EB46-47B7-A892-ECCB61F06590}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A4576B-6420-4680-B52F-C104DB7CA7DE}">
   <dimension ref="A1:L682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4646,7 +4701,7 @@
     <col min="12" max="12" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1202</v>
       </c>
@@ -4657,8 +4712,6 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
@@ -24361,8 +24414,9 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D98AB63F-BE20-4B15-AE87-EEC9A9607B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62422033-EEF5-42DD-9968-C9DA64114890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A5E27A70-A9F0-4E8D-8728-F4D5CD2DA7BE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{05AE6903-AA45-421B-B3EC-DC11193D09EB}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E80C1B-7146-EDDC-4B95-FF53B30A6CD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2710AB62-33CC-EA83-4043-F23231C28C7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8EF107-EA69-443D-AB91-22056463A052}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA45FD5A-C1D0-4645-A186-6B1A12D038C0}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62422033-EEF5-42DD-9968-C9DA64114890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6878D32-B2DD-41D5-AD69-A143109D4733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{05AE6903-AA45-421B-B3EC-DC11193D09EB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E3DBF103-D030-411E-99EA-05BC45D344D0}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2710AB62-33CC-EA83-4043-F23231C28C7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CBADE7-407E-0188-EF45-7B706CEAE3BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA45FD5A-C1D0-4645-A186-6B1A12D038C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDDA65A-EC51-43A7-9450-914F601ECD6D}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6878D32-B2DD-41D5-AD69-A143109D4733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D47049C5-CEE0-471D-9FC3-EB6E20D0B200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E3DBF103-D030-411E-99EA-05BC45D344D0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F7B3E76A-DB90-4B00-BCD8-07D91CE1E67D}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CBADE7-407E-0188-EF45-7B706CEAE3BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E585DD-AE45-59FA-A0D7-E369C3B89FC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDDA65A-EC51-43A7-9450-914F601ECD6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BF92C1-C14B-4975-9D64-EADFEEA54314}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D47049C5-CEE0-471D-9FC3-EB6E20D0B200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5964545E-841E-43CF-B754-DA3806131C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F7B3E76A-DB90-4B00-BCD8-07D91CE1E67D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{AB6094ED-5D84-48E5-B0BA-3238B7275012}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E585DD-AE45-59FA-A0D7-E369C3B89FC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F697EA-1AEB-ECDE-90A2-F93EF8D1C292}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BF92C1-C14B-4975-9D64-EADFEEA54314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3BA856-EDD3-4629-BB42-1F70B4D05045}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5964545E-841E-43CF-B754-DA3806131C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83FCD195-0F93-49F4-A158-69FAB6D0559F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{AB6094ED-5D84-48E5-B0BA-3238B7275012}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2321660C-AABC-4834-B728-39320E19DA31}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F697EA-1AEB-ECDE-90A2-F93EF8D1C292}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C1ACF6-380C-CB34-9272-DD53FC7E54AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3BA856-EDD3-4629-BB42-1F70B4D05045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88A9489-547B-4226-8BBD-CDB302790595}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83FCD195-0F93-49F4-A158-69FAB6D0559F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D7E4A81-8F7C-41F7-B9E3-6C5702590858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2321660C-AABC-4834-B728-39320E19DA31}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E05A04C6-C582-4452-99BA-B28C1BBE7A34}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C1ACF6-380C-CB34-9272-DD53FC7E54AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27902ECD-E5DA-2D98-F859-6958CF3C4AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88A9489-547B-4226-8BBD-CDB302790595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52D24AC-476E-4ADA-837A-52296750726E}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D7E4A81-8F7C-41F7-B9E3-6C5702590858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AF983C5-B130-4266-9D34-3AB01EAD0CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E05A04C6-C582-4452-99BA-B28C1BBE7A34}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1FB7056C-C67B-4E0E-B70D-BC67143814FF}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27902ECD-E5DA-2D98-F859-6958CF3C4AD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A6F6DA-FAEF-334F-8277-64BA2FC371C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52D24AC-476E-4ADA-837A-52296750726E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB55ABC3-0A6A-41E9-BFAC-3DB0CB9D342B}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AF983C5-B130-4266-9D34-3AB01EAD0CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAE3F22A-F094-493A-8892-BB26A224D414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1FB7056C-C67B-4E0E-B70D-BC67143814FF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8011A3C4-C767-4F37-B19D-11D0C32A8713}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A6F6DA-FAEF-334F-8277-64BA2FC371C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E439E00E-5E1A-A0E8-465B-C71AD2D78AC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB55ABC3-0A6A-41E9-BFAC-3DB0CB9D342B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75829C02-D537-49AD-8AE7-F01C7E10EB56}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAE3F22A-F094-493A-8892-BB26A224D414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{194432C5-19B0-4BD1-8E35-70D1D44FF566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8011A3C4-C767-4F37-B19D-11D0C32A8713}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8E51E301-3E2B-438A-9A76-693E6D3BF12A}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E439E00E-5E1A-A0E8-465B-C71AD2D78AC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6617449C-FBF2-F4C8-5D09-E090E82CDF07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75829C02-D537-49AD-8AE7-F01C7E10EB56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE958C2-769D-4FC0-9F6E-478C07091274}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{194432C5-19B0-4BD1-8E35-70D1D44FF566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{023EFE55-4D5D-4BC2-85DF-1F9C0004EA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8E51E301-3E2B-438A-9A76-693E6D3BF12A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{ED74CF9E-C83E-4B8E-BF36-9E7627CAD0B6}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6617449C-FBF2-F4C8-5D09-E090E82CDF07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FB7A55-097D-B59D-8CA0-EF2741ABE738}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE958C2-769D-4FC0-9F6E-478C07091274}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A159760E-CD42-457C-A1D1-00965E99A09B}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{023EFE55-4D5D-4BC2-85DF-1F9C0004EA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{428E8ECF-9232-4DC2-BC9B-55ECF8E5716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{ED74CF9E-C83E-4B8E-BF36-9E7627CAD0B6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{21D6DEF7-80FA-4A49-9BBC-DD8A30307CA3}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FB7A55-097D-B59D-8CA0-EF2741ABE738}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58378A24-649D-55AC-6677-26C750C1797D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A159760E-CD42-457C-A1D1-00965E99A09B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B3F357-7063-4AB9-B93E-25B40DAF5AB7}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{428E8ECF-9232-4DC2-BC9B-55ECF8E5716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E89EB8-F268-46C4-8B39-43A7EA5BB365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{21D6DEF7-80FA-4A49-9BBC-DD8A30307CA3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C4B4094E-A21C-481B-912D-585F62FFADBA}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58378A24-649D-55AC-6677-26C750C1797D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199567ED-3A34-CC2F-97C0-F0A50B052285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B3F357-7063-4AB9-B93E-25B40DAF5AB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2EA17-2070-43AE-9AD8-895344442009}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E89EB8-F268-46C4-8B39-43A7EA5BB365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEB786C6-271D-47AD-982B-22228813C3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C4B4094E-A21C-481B-912D-585F62FFADBA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6126759C-3A51-4AE2-8D89-92DEF2DF9B5F}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199567ED-3A34-CC2F-97C0-F0A50B052285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCA9FDC-3DC8-C49F-1C68-AFE7BCED9C51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2EA17-2070-43AE-9AD8-895344442009}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E1EBDD-B1C2-4410-B9CD-F22FE1C7306D}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEB786C6-271D-47AD-982B-22228813C3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F5A6EC-948E-4EC5-AA45-B8CCF9C78BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6126759C-3A51-4AE2-8D89-92DEF2DF9B5F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{42E48A7F-33ED-4896-9570-43193CC73AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCA9FDC-3DC8-C49F-1C68-AFE7BCED9C51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E9B1DB-BE6B-60B6-07CB-C3E762CF0E4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E1EBDD-B1C2-4410-B9CD-F22FE1C7306D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6A837C-0199-451B-8606-C1496683DB07}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F5A6EC-948E-4EC5-AA45-B8CCF9C78BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFD7945-A25B-4B71-B8CF-4F733C810AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{42E48A7F-33ED-4896-9570-43193CC73AA4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{219DC08C-7461-433F-985C-15B5E5BF74BB}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E9B1DB-BE6B-60B6-07CB-C3E762CF0E4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4C55B4-B09D-07D5-B247-0E16CFB75BFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6A837C-0199-451B-8606-C1496683DB07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E374D77-3021-43C8-ADE3-74B8812EFB74}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFD7945-A25B-4B71-B8CF-4F733C810AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10950655-D331-47A2-8A34-2CD68FDCCEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{219DC08C-7461-433F-985C-15B5E5BF74BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{84892528-A43F-4116-8243-B94FF29CF578}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4C55B4-B09D-07D5-B247-0E16CFB75BFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5296B88C-510B-56B7-56BF-05697BEF8628}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E374D77-3021-43C8-ADE3-74B8812EFB74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F33444-89D7-433C-951D-549EC203FB06}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10950655-D331-47A2-8A34-2CD68FDCCEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DD4BE64-52D3-4121-B86F-559371A38A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{84892528-A43F-4116-8243-B94FF29CF578}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DD470162-E9D5-4D45-8383-DBCC7538B433}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5296B88C-510B-56B7-56BF-05697BEF8628}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B34AE3-E47F-2DE5-1D65-0212D0B85DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F33444-89D7-433C-951D-549EC203FB06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B048B7-3FDB-4D42-B56C-35E7F103E782}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DD4BE64-52D3-4121-B86F-559371A38A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC9C5D44-C524-49ED-9BD1-CD0C27521E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DD470162-E9D5-4D45-8383-DBCC7538B433}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{24EC35AB-C6AE-4865-8C5E-FBEF4D4561F9}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B34AE3-E47F-2DE5-1D65-0212D0B85DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852A7F40-E281-F564-FDCE-7F9568810E75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B048B7-3FDB-4D42-B56C-35E7F103E782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC06228-EFDE-40FC-8752-327914524C2A}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC9C5D44-C524-49ED-9BD1-CD0C27521E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0228BDFC-BB28-4AC9-A4B7-AF0B484A5A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{24EC35AB-C6AE-4865-8C5E-FBEF4D4561F9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DE5FFBB4-ADA5-4ED6-A414-C2EA364D3117}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4590,7 +4590,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852A7F40-E281-F564-FDCE-7F9568810E75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992BEF01-86D2-BE76-005B-24A34AA45488}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4941,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC06228-EFDE-40FC-8752-327914524C2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E4A283-1A40-4E4A-A624-34AA7AF33A82}">
   <dimension ref="A1:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA979EB9-78DE-4110-A781-5F9312E95814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A79024-770A-4025-8617-2544A83DC448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A80E901D-B914-4A00-B35C-80196FC9897E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A9D77314-3884-4F3D-AFB7-99054E0EF784}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4801,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57829A2-0DB4-4303-AE15-7FD5D25D1748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8D659B-667B-44D3-A4C2-8F25B326BC71}">
   <dimension ref="B3:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A79024-770A-4025-8617-2544A83DC448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A406BB-19D3-4CC2-AC28-95AE4971E0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A9D77314-3884-4F3D-AFB7-99054E0EF784}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{242317ED-1B82-4D27-AFB6-652E06FE113F}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4801,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8D659B-667B-44D3-A4C2-8F25B326BC71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4F9127-1989-4F0D-A676-6F74BE6CC66E}">
   <dimension ref="B3:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A406BB-19D3-4CC2-AC28-95AE4971E0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20089372-EE28-4E96-9FF4-F21FE02B018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{242317ED-1B82-4D27-AFB6-652E06FE113F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{330455FB-9AB3-4621-956D-6A4CA4045111}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4801,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4F9127-1989-4F0D-A676-6F74BE6CC66E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745B7655-1E1D-4BAE-937D-123C85806670}">
   <dimension ref="B3:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20089372-EE28-4E96-9FF4-F21FE02B018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E946D1-37FD-4E6F-86F2-7F751B0C68F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{330455FB-9AB3-4621-956D-6A4CA4045111}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1B5D0F85-73F9-4290-814A-9F07B15EFD94}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4801,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745B7655-1E1D-4BAE-937D-123C85806670}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EFACEC-677D-4831-838C-FE9502C2B3DB}">
   <dimension ref="B3:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B1245E-93C8-43A9-91CA-B642B0FC227B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B4B71F4-FB95-47FE-AABE-54257DB573A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EAECD003-695F-4852-8B08-1CC80360C5DA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7E391AB5-5BAC-425E-9510-5D755E30C221}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4801,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8584204-6C7E-4389-A862-2901AC3318B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5B9AFB-ACB6-47D6-8B55-0B5051EE3967}">
   <dimension ref="B3:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B4B71F4-FB95-47FE-AABE-54257DB573A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4029EC4-0A8D-4B8A-B786-30F880096106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7E391AB5-5BAC-425E-9510-5D755E30C221}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{ECCC5780-A70C-4C86-ACFA-508AB0C60474}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4801,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5B9AFB-ACB6-47D6-8B55-0B5051EE3967}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCA13A0-244B-4174-BE5A-100D666603D0}">
   <dimension ref="B3:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4029EC4-0A8D-4B8A-B786-30F880096106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{059A4A49-4C7C-49D4-B4A3-ABB7D8878E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{ECCC5780-A70C-4C86-ACFA-508AB0C60474}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CC6D0AE1-157F-4B5C-9A53-9C916AEFD7FB}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4801,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCA13A0-244B-4174-BE5A-100D666603D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730C3B24-C0A5-4FB4-8973-F9FA8AA95888}">
   <dimension ref="B3:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{059A4A49-4C7C-49D4-B4A3-ABB7D8878E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2E4792C-56D0-4725-A4A3-6F38961F99EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CC6D0AE1-157F-4B5C-9A53-9C916AEFD7FB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B0D05B00-DB03-4268-A483-44B3F28D8FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4801,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730C3B24-C0A5-4FB4-8973-F9FA8AA95888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D02A1-597F-4A24-8696-B74FDDB58256}">
   <dimension ref="B3:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2E4792C-56D0-4725-A4A3-6F38961F99EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{477DE940-AA24-4C25-8CFA-6481F79978F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B0D05B00-DB03-4268-A483-44B3F28D8FA5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9BCD49B7-E16E-4861-ACEF-395EF58FFC6F}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4801,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D02A1-597F-4A24-8696-B74FDDB58256}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C6A33A-91A0-4453-897F-64BA72FF799F}">
   <dimension ref="B3:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{477DE940-AA24-4C25-8CFA-6481F79978F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF680DAB-D17D-4009-A3D8-1CB06225CA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9BCD49B7-E16E-4861-ACEF-395EF58FFC6F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9B32FD2A-7751-40FB-BCB3-9ACA658B6492}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4801,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C6A33A-91A0-4453-897F-64BA72FF799F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1154332-9434-4BCB-BAC5-09F54D9DCB72}">
   <dimension ref="B3:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF680DAB-D17D-4009-A3D8-1CB06225CA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF5DE0E1-8C35-4911-B46E-A2A6B9F0F4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9B32FD2A-7751-40FB-BCB3-9ACA658B6492}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5198C5FE-D2C0-4604-B0F0-A73A4DCC64BB}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -4801,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1154332-9434-4BCB-BAC5-09F54D9DCB72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB385CD-50F9-4D0D-A090-CEA8E223BD36}">
   <dimension ref="B3:L699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
